--- a/BreadSheet.xlsx
+++ b/BreadSheet.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1C53AF-2D13-9C41-B741-A48EC4557EE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FED057-9787-424E-94B4-71581DE700F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="580" windowWidth="28300" windowHeight="16160" xr2:uid="{F1D659DC-22F9-924C-A9FB-7541B68CAE7B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F1D659DC-22F9-924C-A9FB-7541B68CAE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>素材1</t>
     <rPh sb="0" eb="2">
@@ -394,6 +394,73 @@
   </si>
   <si>
     <t>salt_02</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>047822B3790000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材9</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>swe_04</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜂蜜</t>
+    <rPh sb="0" eb="2">
+      <t>ハチミテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜂蜜パン</t>
+    <rPh sb="0" eb="2">
+      <t>ハチミテゥ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シリンの蜜</t>
+    <rPh sb="4" eb="5">
+      <t xml:space="preserve">ミツ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04B60BB0790000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04D392B1790000</t>
+  </si>
+  <si>
+    <t>04BCC9B2790000</t>
+  </si>
+  <si>
+    <t>041ED1B0790000</t>
+  </si>
+  <si>
+    <t>047373B3790000</t>
+  </si>
+  <si>
+    <t>049D4AB3790000</t>
+  </si>
+  <si>
+    <t>04A928AB790000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>04D3F4AA790000</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -812,10 +879,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1001835-45A4-B443-ADC6-47CCCA32AF3E}">
-  <dimension ref="A2:M10"/>
+  <dimension ref="A2:M11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -823,6 +890,7 @@
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
     <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:13">
@@ -841,6 +909,9 @@
       <c r="F2" t="s">
         <v>22</v>
       </c>
+      <c r="H2" t="s">
+        <v>59</v>
+      </c>
       <c r="K2" t="s">
         <v>9</v>
       </c>
@@ -870,7 +941,12 @@
       <c r="F3" t="s">
         <v>23</v>
       </c>
-      <c r="G3" s="1"/>
+      <c r="G3" s="1">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>60</v>
+      </c>
       <c r="K3" t="s">
         <v>10</v>
       </c>
@@ -898,7 +974,12 @@
       <c r="F4" t="s">
         <v>27</v>
       </c>
-      <c r="G4" s="2"/>
+      <c r="G4" s="2">
+        <v>2</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
       <c r="K4" t="s">
         <v>11</v>
       </c>
@@ -926,7 +1007,12 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="3"/>
+      <c r="G5" s="3">
+        <v>3</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
       <c r="K5" t="s">
         <v>12</v>
       </c>
@@ -954,7 +1040,12 @@
       <c r="F6" t="s">
         <v>25</v>
       </c>
-      <c r="G6" s="4"/>
+      <c r="G6" s="4">
+        <v>4</v>
+      </c>
+      <c r="H6" t="s">
+        <v>67</v>
+      </c>
       <c r="K6" t="s">
         <v>13</v>
       </c>
@@ -974,15 +1065,20 @@
         <v>5</v>
       </c>
       <c r="D7" t="s">
-        <v>43</v>
+        <v>65</v>
       </c>
       <c r="E7" t="s">
-        <v>40</v>
+        <v>63</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
-      </c>
-      <c r="G7" s="1"/>
+        <v>64</v>
+      </c>
+      <c r="G7" s="1">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>66</v>
+      </c>
       <c r="K7" t="s">
         <v>14</v>
       </c>
@@ -1002,36 +1098,46 @@
         <v>5</v>
       </c>
       <c r="D8" t="s">
-        <v>57</v>
+        <v>43</v>
       </c>
       <c r="E8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="F8" t="s">
-        <v>45</v>
-      </c>
-      <c r="G8" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="G8" s="1">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>68</v>
+      </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
         <v>48</v>
       </c>
       <c r="B9" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="C9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="E9" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
-      </c>
-      <c r="G9" s="2"/>
+        <v>45</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>69</v>
+      </c>
       <c r="K9" t="s">
         <v>14</v>
       </c>
@@ -1047,21 +1153,52 @@
         <v>52</v>
       </c>
       <c r="B10" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" t="s">
+        <v>6</v>
+      </c>
+      <c r="D10" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" s="2">
+        <v>2</v>
+      </c>
+      <c r="H10" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>61</v>
+      </c>
+      <c r="B11" t="s">
         <v>58</v>
       </c>
-      <c r="C10" t="s">
+      <c r="C11" t="s">
         <v>8</v>
       </c>
-      <c r="D10" t="s">
+      <c r="D11" t="s">
         <v>54</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E11" t="s">
         <v>53</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F11" t="s">
         <v>51</v>
       </c>
-      <c r="G10" s="4"/>
+      <c r="G11" s="4">
+        <v>4</v>
+      </c>
+      <c r="H11" t="s">
+        <v>71</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/BreadSheet.xlsx
+++ b/BreadSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73FED057-9787-424E-94B4-71581DE700F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AD719E-42FD-4146-BB64-82D01AF473BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{F1D659DC-22F9-924C-A9FB-7541B68CAE7B}"/>
+    <workbookView xWindow="0" yWindow="1260" windowWidth="28800" windowHeight="16300" xr2:uid="{F1D659DC-22F9-924C-A9FB-7541B68CAE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
   <si>
     <t>素材1</t>
     <rPh sb="0" eb="2">
@@ -461,6 +461,100 @@
   </si>
   <si>
     <t>04D3F4AA790000</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>きのこ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかな</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>海老</t>
+    <rPh sb="0" eb="2">
+      <t xml:space="preserve">エビ </t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よもぎ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もち</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ポテト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョココロネ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フランスパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明太</t>
+    <rPh sb="0" eb="2">
+      <t>メンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明太フランスパン</t>
+    <rPh sb="0" eb="2">
+      <t>メンタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ホットドック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ウインナー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>チョコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シチューパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さかな型のパン(上に葉っぱとか載せたい)</t>
+    <rPh sb="8" eb="9">
+      <t>ウエニ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>ハッパ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ノセタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>よもぎパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もちぱん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ジャガイモパン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エビマヨトースト</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -879,17 +973,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1001835-45A4-B443-ADC6-47CCCA32AF3E}">
-  <dimension ref="A2:M11"/>
+  <dimension ref="A2:M21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
   <cols>
     <col min="4" max="4" width="17.7109375" customWidth="1"/>
     <col min="5" max="5" width="18.140625" customWidth="1"/>
-    <col min="6" max="6" width="27" customWidth="1"/>
+    <col min="6" max="6" width="34" customWidth="1"/>
     <col min="8" max="8" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1200,6 +1294,86 @@
         <v>71</v>
       </c>
     </row>
+    <row r="12" spans="1:13">
+      <c r="E12" t="s">
+        <v>74</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="E13" t="s">
+        <v>75</v>
+      </c>
+      <c r="F13" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="E14" t="s">
+        <v>76</v>
+      </c>
+      <c r="F14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="E15" t="s">
+        <v>77</v>
+      </c>
+      <c r="F15" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="E16" t="s">
+        <v>78</v>
+      </c>
+      <c r="F16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="17" spans="5:6">
+      <c r="E17" t="s">
+        <v>79</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="18" spans="5:6">
+      <c r="E18" t="s">
+        <v>86</v>
+      </c>
+      <c r="F18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="5:6">
+      <c r="E19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F19" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F21" t="s">
+        <v>84</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BreadSheet.xlsx
+++ b/BreadSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{28AD719E-42FD-4146-BB64-82D01AF473BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C90FF17-C250-7D43-B4F9-30148F4567EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1260" windowWidth="28800" windowHeight="16300" xr2:uid="{F1D659DC-22F9-924C-A9FB-7541B68CAE7B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{F1D659DC-22F9-924C-A9FB-7541B68CAE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
   <si>
     <t>素材1</t>
     <rPh sb="0" eb="2">
@@ -555,6 +555,10 @@
   </si>
   <si>
     <t>エビマヨトースト</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>3Dモデル</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -562,7 +566,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -577,6 +581,12 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Yu Gothic"/>
+      <family val="3"/>
+      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -674,6 +684,1534 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp1.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp10.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp11.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp12.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp13.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp14.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp15.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp16.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp17.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp18.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp22.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp23.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp3.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp4.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp5.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp6.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp7.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp8.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/ctrlProps/ctrlProp9.xml><?xml version="1.0" encoding="utf-8"?>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1025" name="Check Box 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1025"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4B94EB-284E-9570-3A18-2960DAE18DA9}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1044"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B396E2-963C-3840-B3EA-9B9C928953E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1045"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A99579-D583-AC4A-B3DF-0FBAAC249762}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1046"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF6BAC9-A129-BC4D-AAA2-BDF1D3D0D99A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1047"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42ACE7E-AD6E-034C-BA3E-794545BCE58C}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1048"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D78ACCB-330B-F64B-8207-9B1A062359E5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1049"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294DB765-6156-BD42-A442-993FE81D3BD7}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1050"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09931993-7013-9D4B-A858-89ADF11D1531}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1051"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B198C064-8FCE-C04A-97EB-A96C0EF97D50}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1052"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7626BA5-93C9-014B-B323-12F8588CDFA8}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1053"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE542EF-DF1F-4E42-ABEC-5706EC0E35D4}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1054"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98802A42-69D5-F741-B89C-2473DCB1693F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1055"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3262EE8C-E09A-6B4F-9077-23724895AB12}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1056"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D17230-BC21-9145-A195-274C40003A55}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1057"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25160D82-53B1-F04F-9B6C-607D8A0331F2}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1058"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16182AB-9B22-0441-AD6E-6DA6B6F61A32}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1059"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE59C509-EC32-8649-83D7-B5C114A66BF5}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1060"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C869584-F68A-0F4E-84EF-D484DA54A60B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1061"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F036DF-EDB8-AB4F-8841-222048533A26}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1062"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258C33CF-9D41-FD4E-8740-504EACB64F1F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1063"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70E2C70-EEA4-0F4B-996B-B1E724475E0B}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1064"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37184700-6571-ED4D-BC60-79A7DF6C9127}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:oneCellAnchor>
+        <xdr:from>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>355600</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s1065"/>
+                </a:ext>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A87D97-F52E-F246-B2F0-D2D2E3BFAC72}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:extLst>
+              <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+                <a14:hiddenFill>
+                  <a:solidFill>
+                    <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+                  </a:solidFill>
+                </a14:hiddenFill>
+              </a:ext>
+              <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
+                <a14:hiddenLine w="9525">
+                  <a:solidFill>
+                    <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+                  </a:solidFill>
+                  <a:miter lim="800000"/>
+                  <a:headEnd/>
+                  <a:tailEnd/>
+                </a14:hiddenLine>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:oneCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -972,11 +2510,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1001835-45A4-B443-ADC6-47CCCA32AF3E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1001835-45A4-B443-ADC6-47CCCA32AF3E}">
   <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -1006,6 +2544,9 @@
       <c r="H2" t="s">
         <v>59</v>
       </c>
+      <c r="J2" t="s">
+        <v>93</v>
+      </c>
       <c r="K2" t="s">
         <v>9</v>
       </c>
@@ -1377,5 +2918,519 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x14">
+      <controls>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1025" r:id="rId3" name="Check Box 1">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>2</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1044" r:id="rId4" name="Check Box 20">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>3</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1045" r:id="rId5" name="Check Box 21">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>4</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1046" r:id="rId6" name="Check Box 22">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>5</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1047" r:id="rId7" name="Check Box 23">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>6</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1048" r:id="rId8" name="Check Box 24">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>7</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1049" r:id="rId9" name="Check Box 25">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>8</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1050" r:id="rId10" name="Check Box 26">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>9</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1051" r:id="rId11" name="Check Box 27">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>10</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1052" r:id="rId12" name="Check Box 28">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>11</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1053" r:id="rId13" name="Check Box 29">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>12</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1054" r:id="rId14" name="Check Box 30">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>13</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1055" r:id="rId15" name="Check Box 31">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>14</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1056" r:id="rId16" name="Check Box 32">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>15</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1057" r:id="rId17" name="Check Box 33">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>16</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1058" r:id="rId18" name="Check Box 34">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>17</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1059" r:id="rId19" name="Check Box 35">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>18</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1060" r:id="rId20" name="Check Box 36">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>19</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1061" r:id="rId21" name="Check Box 37">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>20</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1062" r:id="rId22" name="Check Box 38">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>21</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1063" r:id="rId23" name="Check Box 39">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>22</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1064" r:id="rId24" name="Check Box 40">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>23</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+        <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+          <mc:Choice Requires="x14">
+            <control shapeId="1065" r:id="rId25" name="Check Box 41">
+              <controlPr defaultSize="0" autoFill="0" autoLine="0" autoPict="0">
+                <anchor moveWithCells="1">
+                  <from>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>355600</xdr:colOff>
+                    <xdr:row>24</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </from>
+                  <to>
+                    <xdr:col>9</xdr:col>
+                    <xdr:colOff>685800</xdr:colOff>
+                    <xdr:row>25</xdr:row>
+                    <xdr:rowOff>0</xdr:rowOff>
+                  </to>
+                </anchor>
+              </controlPr>
+            </control>
+          </mc:Choice>
+        </mc:AlternateContent>
+      </controls>
+    </mc:Choice>
+  </mc:AlternateContent>
 </worksheet>
 </file>
--- a/BreadSheet.xlsx
+++ b/BreadSheet.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C90FF17-C250-7D43-B4F9-30148F4567EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43A8DD-7308-584B-8816-C2432AE60D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16300" xr2:uid="{F1D659DC-22F9-924C-A9FB-7541B68CAE7B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{F1D659DC-22F9-924C-A9FB-7541B68CAE7B}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
   <si>
     <t>素材1</t>
     <rPh sb="0" eb="2">
@@ -559,6 +559,24 @@
   </si>
   <si>
     <t>3Dモデル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>spi_03</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パラケ肉</t>
+    <rPh sb="3" eb="4">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素材10</t>
+    <rPh sb="0" eb="2">
+      <t>ソザイ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -566,7 +584,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -581,12 +599,6 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="Yu Gothic"/>
-      <family val="3"/>
-      <charset val="128"/>
     </font>
   </fonts>
   <fills count="7">
@@ -727,7 +739,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp19.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -735,7 +747,7 @@
 </file>
 
 <file path=xl/ctrlProps/ctrlProp20.xml><?xml version="1.0" encoding="utf-8"?>
-<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" checked="Checked" lockText="1" noThreeD="1"/>
+<formControlPr xmlns="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" objectType="CheckBox" lockText="1" noThreeD="1"/>
 </file>
 
 <file path=xl/ctrlProps/ctrlProp21.xml><?xml version="1.0" encoding="utf-8"?>
@@ -803,7 +815,7 @@
                   <a14:compatExt spid="_x0000_s1025"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4A4B94EB-284E-9570-3A18-2960DAE18DA9}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000001040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -849,14 +861,19 @@
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
           <xdr:row>3</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>4</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1044" name="Check Box 20" hidden="1">
@@ -865,7 +882,7 @@
                   <a14:compatExt spid="_x0000_s1044"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2B396E2-963C-3840-B3EA-9B9C928953E5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000014040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -905,20 +922,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
           <xdr:row>4</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1045" name="Check Box 21" hidden="1">
@@ -927,7 +949,7 @@
                   <a14:compatExt spid="_x0000_s1045"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62A99579-D583-AC4A-B3DF-0FBAAC249762}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000015040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -967,20 +989,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
           <xdr:row>5</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>6</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1046" name="Check Box 22" hidden="1">
@@ -989,7 +1016,7 @@
                   <a14:compatExt spid="_x0000_s1046"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACF6BAC9-A129-BC4D-AAA2-BDF1D3D0D99A}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000016040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1029,20 +1056,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
           <xdr:row>6</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>7</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1047" name="Check Box 23" hidden="1">
@@ -1051,7 +1083,7 @@
                   <a14:compatExt spid="_x0000_s1047"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C42ACE7E-AD6E-034C-BA3E-794545BCE58C}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000017040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1091,20 +1123,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
           <xdr:row>7</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>8</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1048" name="Check Box 24" hidden="1">
@@ -1113,7 +1150,7 @@
                   <a14:compatExt spid="_x0000_s1048"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D78ACCB-330B-F64B-8207-9B1A062359E5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000018040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1153,20 +1190,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
           <xdr:row>8</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>9</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1049" name="Check Box 25" hidden="1">
@@ -1175,7 +1217,7 @@
                   <a14:compatExt spid="_x0000_s1049"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{294DB765-6156-BD42-A442-993FE81D3BD7}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000019040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1215,20 +1257,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
           <xdr:row>9</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>10</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1050" name="Check Box 26" hidden="1">
@@ -1237,7 +1284,7 @@
                   <a14:compatExt spid="_x0000_s1050"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09931993-7013-9D4B-A858-89ADF11D1531}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001A040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1277,20 +1324,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
           <xdr:row>10</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>11</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1051" name="Check Box 27" hidden="1">
@@ -1299,7 +1351,7 @@
                   <a14:compatExt spid="_x0000_s1051"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B198C064-8FCE-C04A-97EB-A96C0EF97D50}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001B040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1339,20 +1391,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
-          <xdr:row>11</xdr:row>
+          <xdr:row>12</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1052" name="Check Box 28" hidden="1">
@@ -1361,7 +1418,7 @@
                   <a14:compatExt spid="_x0000_s1052"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7626BA5-93C9-014B-B323-12F8588CDFA8}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001C040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1401,20 +1458,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
-          <xdr:row>12</xdr:row>
+          <xdr:row>13</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>14</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1053" name="Check Box 29" hidden="1">
@@ -1423,7 +1485,7 @@
                   <a14:compatExt spid="_x0000_s1053"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEE542EF-DF1F-4E42-ABEC-5706EC0E35D4}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001D040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1463,20 +1525,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
-          <xdr:row>13</xdr:row>
+          <xdr:row>14</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>15</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1054" name="Check Box 30" hidden="1">
@@ -1485,7 +1552,7 @@
                   <a14:compatExt spid="_x0000_s1054"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{98802A42-69D5-F741-B89C-2473DCB1693F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001E040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1525,20 +1592,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
-          <xdr:row>14</xdr:row>
+          <xdr:row>15</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>16</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1055" name="Check Box 31" hidden="1">
@@ -1547,7 +1619,7 @@
                   <a14:compatExt spid="_x0000_s1055"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3262EE8C-E09A-6B4F-9077-23724895AB12}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-00001F040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1587,20 +1659,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
-          <xdr:row>15</xdr:row>
+          <xdr:row>16</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>17</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1056" name="Check Box 32" hidden="1">
@@ -1609,7 +1686,7 @@
                   <a14:compatExt spid="_x0000_s1056"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{01D17230-BC21-9145-A195-274C40003A55}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000020040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1649,20 +1726,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
-          <xdr:row>16</xdr:row>
+          <xdr:row>17</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>18</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1057" name="Check Box 33" hidden="1">
@@ -1671,7 +1753,7 @@
                   <a14:compatExt spid="_x0000_s1057"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25160D82-53B1-F04F-9B6C-607D8A0331F2}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000021040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1711,20 +1793,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
-          <xdr:row>17</xdr:row>
+          <xdr:row>18</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>19</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1058" name="Check Box 34" hidden="1">
@@ -1733,7 +1820,7 @@
                   <a14:compatExt spid="_x0000_s1058"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C16182AB-9B22-0441-AD6E-6DA6B6F61A32}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000022040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1773,20 +1860,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
-          <xdr:row>18</xdr:row>
+          <xdr:row>19</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>20</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1059" name="Check Box 35" hidden="1">
@@ -1795,7 +1887,7 @@
                   <a14:compatExt spid="_x0000_s1059"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AE59C509-EC32-8649-83D7-B5C114A66BF5}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000023040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1835,20 +1927,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
-          <xdr:row>19</xdr:row>
+          <xdr:row>20</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>21</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1060" name="Check Box 36" hidden="1">
@@ -1857,7 +1954,7 @@
                   <a14:compatExt spid="_x0000_s1060"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2C869584-F68A-0F4E-84EF-D484DA54A60B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000024040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1897,20 +1994,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
-          <xdr:row>20</xdr:row>
+          <xdr:row>11</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>12</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1061" name="Check Box 37" hidden="1">
@@ -1919,7 +2021,7 @@
                   <a14:compatExt spid="_x0000_s1061"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C8F036DF-EDB8-AB4F-8841-222048533A26}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000025040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1959,20 +2061,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
           <xdr:row>21</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>22</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1062" name="Check Box 38" hidden="1">
@@ -1981,7 +2088,7 @@
                   <a14:compatExt spid="_x0000_s1062"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{258C33CF-9D41-FD4E-8740-504EACB64F1F}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000026040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2021,20 +2128,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
           <xdr:row>22</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>23</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1063" name="Check Box 39" hidden="1">
@@ -2043,7 +2155,7 @@
                   <a14:compatExt spid="_x0000_s1063"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C70E2C70-EEA4-0F4B-996B-B1E724475E0B}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000027040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2083,20 +2195,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
           <xdr:row>23</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1064" name="Check Box 40" hidden="1">
@@ -2105,7 +2222,7 @@
                   <a14:compatExt spid="_x0000_s1064"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37184700-6571-ED4D-BC60-79A7DF6C9127}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000028040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2145,20 +2262,25 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:oneCellAnchor>
+      <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>9</xdr:col>
           <xdr:colOff>355600</xdr:colOff>
           <xdr:row>24</xdr:row>
           <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
-        <xdr:ext cx="330200" cy="254000"/>
+        <xdr:to>
+          <xdr:col>9</xdr:col>
+          <xdr:colOff>685800</xdr:colOff>
+          <xdr:row>25</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="1065" name="Check Box 41" hidden="1">
@@ -2167,7 +2289,7 @@
                   <a14:compatExt spid="_x0000_s1065"/>
                 </a:ext>
                 <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{63A87D97-F52E-F246-B2F0-D2D2E3BFAC72}"/>
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000029040000}"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -2207,7 +2329,7 @@
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
-      </xdr:oneCellAnchor>
+      </xdr:twoCellAnchor>
     </mc:Choice>
     <mc:Fallback/>
   </mc:AlternateContent>
@@ -2514,7 +2636,7 @@
   <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2836,83 +2958,98 @@
       </c>
     </row>
     <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>96</v>
+      </c>
+      <c r="B12" t="s">
+        <v>94</v>
+      </c>
+      <c r="C12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" t="s">
+        <v>95</v>
+      </c>
       <c r="E12" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="F12" t="s">
-        <v>87</v>
+        <v>84</v>
+      </c>
+      <c r="G12" s="2">
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="E13" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="14" spans="1:13">
       <c r="E14" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="E15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="E16" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="17" spans="5:6">
       <c r="E17" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F17" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="5:6">
       <c r="E18" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="F18" t="s">
-        <v>80</v>
+        <v>91</v>
       </c>
     </row>
     <row r="19" spans="5:6">
       <c r="E19" t="s">
-        <v>53</v>
+        <v>86</v>
       </c>
       <c r="F19" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="5:6">
       <c r="E20" t="s">
-        <v>82</v>
+        <v>53</v>
       </c>
       <c r="F20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="5:6">
       <c r="E21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F21" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -3129,13 +3266,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>355600</xdr:colOff>
-                    <xdr:row>11</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3151,13 +3288,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>355600</xdr:colOff>
-                    <xdr:row>12</xdr:row>
+                    <xdr:row>13</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3173,13 +3310,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>355600</xdr:colOff>
-                    <xdr:row>13</xdr:row>
+                    <xdr:row>14</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3195,13 +3332,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>355600</xdr:colOff>
-                    <xdr:row>14</xdr:row>
+                    <xdr:row>15</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3217,13 +3354,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>355600</xdr:colOff>
-                    <xdr:row>15</xdr:row>
+                    <xdr:row>16</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3239,13 +3376,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>355600</xdr:colOff>
-                    <xdr:row>16</xdr:row>
+                    <xdr:row>17</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3261,13 +3398,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>355600</xdr:colOff>
-                    <xdr:row>17</xdr:row>
+                    <xdr:row>18</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3283,13 +3420,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>355600</xdr:colOff>
-                    <xdr:row>18</xdr:row>
+                    <xdr:row>19</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3305,13 +3442,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>355600</xdr:colOff>
-                    <xdr:row>19</xdr:row>
+                    <xdr:row>20</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>21</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>
@@ -3327,13 +3464,13 @@
                   <from>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>355600</xdr:colOff>
-                    <xdr:row>20</xdr:row>
+                    <xdr:row>11</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </from>
                   <to>
                     <xdr:col>9</xdr:col>
                     <xdr:colOff>685800</xdr:colOff>
-                    <xdr:row>21</xdr:row>
+                    <xdr:row>12</xdr:row>
                     <xdr:rowOff>0</xdr:rowOff>
                   </to>
                 </anchor>

--- a/BreadSheet.xlsx
+++ b/BreadSheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hb21a035/Documents/MakeBread_Git/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA43A8DD-7308-584B-8816-C2432AE60D3A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27459C54-7A4F-764E-BB72-3562D3DEFE2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16260" xr2:uid="{F1D659DC-22F9-924C-A9FB-7541B68CAE7B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="98">
   <si>
     <t>素材1</t>
     <rPh sb="0" eb="2">
@@ -577,6 +577,10 @@
     <rPh sb="0" eb="2">
       <t>ソザイ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Salt_03</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -2636,7 +2640,7 @@
   <dimension ref="A2:M21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="20"/>
@@ -2997,6 +3001,9 @@
       </c>
     </row>
     <row r="15" spans="1:13">
+      <c r="B15" t="s">
+        <v>97</v>
+      </c>
       <c r="E15" t="s">
         <v>76</v>
       </c>
